--- a/Config/Z_战斗鼓点音乐.xlsx
+++ b/Config/Z_战斗鼓点音乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14745" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -92,7 +92,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,13 +100,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +125,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -141,21 +142,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,14 +165,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -209,39 +188,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,25 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,19 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,133 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,17 +468,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,20 +511,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,138 +552,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/Config/Z_战斗鼓点音乐.xlsx
+++ b/Config/Z_战斗鼓点音乐.xlsx
@@ -13,31 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>alun</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>#id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>#name</t>
   </si>
   <si>
     <t>res</t>
   </si>
   <si>
-    <t>drumsTime</t>
+    <t>bpm</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
-    <t>##comment</t>
+    <t>float</t>
   </si>
   <si>
-    <t>音乐Id</t>
+    <t>##comment</t>
   </si>
   <si>
     <t>音乐名</t>
@@ -46,19 +56,19 @@
     <t>音乐资源名</t>
   </si>
   <si>
-    <t>鼓点间隔时间</t>
+    <t>每分钟节拍数</t>
   </si>
   <si>
     <t>##default</t>
   </si>
   <si>
-    <t>测试</t>
+    <t>turkey120</t>
   </si>
   <si>
-    <t>GameMap_Single</t>
+    <t>turkey140</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>turkey160</t>
   </si>
 </sst>
 </file>
@@ -66,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -92,14 +102,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,11 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,11 +188,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,61 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +491,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,181 +557,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1245,111 +1252,123 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.8666666666667" style="1" customWidth="1"/>
-    <col min="2" max="3" width="33.1333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.4333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.3666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="33.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="44.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="I2" s="3"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" s="1" customFormat="1" spans="2:7">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>140</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:7">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>160</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Z_战斗鼓点音乐.xlsx
+++ b/Config/Z_战斗鼓点音乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="14745" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>##</t>
   </si>
@@ -62,13 +62,10 @@
     <t>##default</t>
   </si>
   <si>
-    <t>turkey120</t>
+    <t>fight125</t>
   </si>
   <si>
-    <t>turkey140</t>
-  </si>
-  <si>
-    <t>turkey160</t>
+    <t>Bg_Fight</t>
   </si>
 </sst>
 </file>
@@ -76,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -101,35 +98,141 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,112 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -266,31 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,151 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +454,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,6 +477,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,30 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -530,15 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,138 +559,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1252,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1329,40 +1326,26 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:7">
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>140</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:7">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>160</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="6"/>
     </row>
   </sheetData>
